--- a/CASUAL/LA SP-VMO/MAULLON, JAENA.xlsx
+++ b/CASUAL/LA SP-VMO/MAULLON, JAENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468913D-9D47-492C-B529-08E2F736F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -733,17 +734,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -753,6 +751,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,7 +1284,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1327,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1391,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1451,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1517,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1580,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1678,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1737,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1802,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1845,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1920,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2106,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2172,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2230,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2296,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2352,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2427,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2470,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2536,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2592,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2671,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2687,25 +2688,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K141" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K141" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2717,25 +2718,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3042,7 +3043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3052,7 +3053,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3060,34 +3061,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3099,18 +3100,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3119,18 +3120,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3141,18 +3142,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3160,7 +3161,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3173,24 +3174,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3234,7 +3235,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>10.807000000000002</v>
+        <v>9.8070000000000022</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3249,7 +3250,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3271,7 +3272,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3311,7 +3312,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3331,7 +3332,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3351,7 +3352,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3391,7 +3392,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3411,7 +3412,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3431,7 +3432,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3477,7 +3478,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3497,7 +3498,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3561,7 +3562,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3601,7 +3602,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3681,7 +3682,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3721,7 +3722,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3741,7 +3742,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3761,7 +3762,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3785,7 +3786,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>59</v>
       </c>
@@ -3803,7 +3804,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3823,7 +3824,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3889,7 +3890,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3929,7 +3930,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44025</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44763</v>
       </c>
@@ -3969,7 +3970,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3989,7 +3990,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4035,7 +4036,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4055,7 +4056,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>65</v>
       </c>
@@ -4093,7 +4094,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4153,7 +4154,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4213,7 +4214,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4273,7 +4274,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>66</v>
       </c>
@@ -4355,7 +4356,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4375,7 +4376,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4395,7 +4396,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>90</v>
@@ -4443,7 +4444,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44652</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>100</v>
@@ -4491,7 +4492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>99</v>
@@ -4537,7 +4538,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4557,7 +4558,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4577,7 +4578,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4627,7 +4628,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>52</v>
@@ -4675,7 +4676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>93</v>
@@ -4697,7 +4698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>95</v>
@@ -4717,7 +4718,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44866</v>
       </c>
@@ -4737,7 +4738,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44896</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>55</v>
@@ -4783,7 +4784,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>90</v>
@@ -4805,7 +4806,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>91</v>
@@ -4825,7 +4826,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>75</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44927</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>52</v>
@@ -4891,7 +4892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44958</v>
       </c>
@@ -4911,7 +4912,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44986</v>
       </c>
@@ -4931,7 +4932,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45017</v>
       </c>
@@ -4951,7 +4952,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45047</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45078</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45108</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45139</v>
       </c>
@@ -5049,7 +5050,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45170</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45200</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45231</v>
       </c>
@@ -5121,7 +5122,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45261</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>102</v>
       </c>
@@ -5163,13 +5164,17 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45292</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>1</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -5179,9 +5184,11 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="49">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45323</v>
       </c>
@@ -5199,7 +5206,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45352</v>
       </c>
@@ -5217,7 +5224,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45383</v>
       </c>
@@ -5235,7 +5242,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45413</v>
       </c>
@@ -5253,7 +5260,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45444</v>
       </c>
@@ -5271,7 +5278,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45474</v>
       </c>
@@ -5289,7 +5296,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45505</v>
       </c>
@@ -5307,7 +5314,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45536</v>
       </c>
@@ -5325,7 +5332,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45566</v>
       </c>
@@ -5343,7 +5350,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45597</v>
       </c>
@@ -5361,7 +5368,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45627</v>
       </c>
@@ -5379,7 +5386,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45658</v>
       </c>
@@ -5397,7 +5404,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45689</v>
       </c>
@@ -5415,7 +5422,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45717</v>
       </c>
@@ -5433,7 +5440,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45748</v>
       </c>
@@ -5451,7 +5458,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45778</v>
       </c>
@@ -5469,7 +5476,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45809</v>
       </c>
@@ -5487,7 +5494,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45839</v>
       </c>
@@ -5505,7 +5512,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45870</v>
       </c>
@@ -5523,7 +5530,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45901</v>
       </c>
@@ -5541,7 +5548,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45931</v>
       </c>
@@ -5559,7 +5566,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45962</v>
       </c>
@@ -5577,7 +5584,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45992</v>
       </c>
@@ -5595,7 +5602,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46023</v>
       </c>
@@ -5613,7 +5620,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46054</v>
       </c>
@@ -5631,7 +5638,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46082</v>
       </c>
@@ -5649,7 +5656,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46113</v>
       </c>
@@ -5667,7 +5674,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46143</v>
       </c>
@@ -5685,7 +5692,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46174</v>
       </c>
@@ -5703,7 +5710,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46204</v>
       </c>
@@ -5721,7 +5728,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46235</v>
       </c>
@@ -5739,7 +5746,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46266</v>
       </c>
@@ -5757,7 +5764,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46296</v>
       </c>
@@ -5775,7 +5782,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5791,7 +5798,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5807,7 +5814,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5823,7 +5830,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5839,7 +5846,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5855,7 +5862,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5871,7 +5878,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5887,7 +5894,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -5905,23 +5912,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5944,34 +5951,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5983,18 +5990,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6003,18 +6010,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6025,18 +6032,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6044,7 +6051,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6057,24 +6064,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6133,7 +6140,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -6155,7 +6162,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -6203,7 +6210,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -6227,7 +6234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>51</v>
@@ -6247,7 +6254,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
@@ -6289,7 +6296,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -6311,7 +6318,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -6335,7 +6342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>59</v>
       </c>
@@ -6353,7 +6360,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6375,7 +6382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43862</v>
       </c>
@@ -6395,7 +6402,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44044</v>
       </c>
@@ -6417,7 +6424,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>66</v>
       </c>
@@ -6435,7 +6442,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44835</v>
       </c>
@@ -6459,7 +6466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44896</v>
       </c>
@@ -6483,7 +6490,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>75</v>
       </c>
@@ -6501,7 +6508,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44927</v>
       </c>
@@ -6525,7 +6532,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44958</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>79</v>
@@ -6571,7 +6578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44986</v>
       </c>
@@ -6595,7 +6602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>79</v>
@@ -6617,7 +6624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45107</v>
       </c>
@@ -6637,7 +6644,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>45139</v>
       </c>
@@ -6661,7 +6668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>45170</v>
       </c>
@@ -6679,7 +6686,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6695,7 +6702,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6711,7 +6718,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6727,7 +6734,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6743,7 +6750,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6759,7 +6766,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6775,7 +6782,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6791,7 +6798,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6807,7 +6814,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6823,7 +6830,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6839,7 +6846,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6855,7 +6862,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6871,7 +6878,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6887,7 +6894,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6903,7 +6910,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6919,7 +6926,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6935,7 +6942,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6951,7 +6958,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6967,7 +6974,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6983,7 +6990,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6999,7 +7006,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7015,7 +7022,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7031,7 +7038,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7047,7 +7054,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7063,7 +7070,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7079,7 +7086,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7095,7 +7102,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7111,7 +7118,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7127,7 +7134,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7143,7 +7150,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7159,7 +7166,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7175,7 +7182,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7191,7 +7198,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7207,7 +7214,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7223,7 +7230,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7239,7 +7246,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7255,7 +7262,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7271,7 +7278,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7287,7 +7294,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7303,7 +7310,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7319,7 +7326,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7335,7 +7342,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7351,7 +7358,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7367,7 +7374,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7383,7 +7390,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="15"/>
       <c r="C79" s="42"/>
@@ -7414,10 +7421,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7440,28 +7447,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7474,7 +7481,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7503,7 +7510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>17.341000000000001</v>
       </c>
@@ -7529,17 +7536,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7560,7 +7567,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7587,7 +7594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7613,7 +7620,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7665,7 +7672,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7717,7 +7724,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7769,7 +7776,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7829,7 +7836,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7871,7 +7878,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7892,7 +7899,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7913,7 +7920,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7934,7 +7941,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7955,7 +7962,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7976,7 +7983,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8018,7 +8025,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8039,7 +8046,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8060,7 +8067,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8081,7 +8088,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8102,7 +8109,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8186,7 +8193,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8207,7 +8214,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8228,7 +8235,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8249,7 +8256,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8258,7 +8265,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8267,7 +8274,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8276,7 +8283,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8285,7 +8292,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8294,7 +8301,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8303,7 +8310,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8312,7 +8319,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8321,7 +8328,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8330,7 +8337,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8339,7 +8346,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8348,7 +8355,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8357,7 +8364,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8366,7 +8373,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8375,7 +8382,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8384,7 +8391,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8393,7 +8400,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8402,7 +8409,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8411,7 +8418,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8420,7 +8427,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8429,7 +8436,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8438,7 +8445,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8447,7 +8454,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8456,7 +8463,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8465,7 +8472,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8474,7 +8481,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8483,7 +8490,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8492,7 +8499,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8501,7 +8508,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8510,7 +8517,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA SP-VMO/MAULLON, JAENA.xlsx
+++ b/CASUAL/LA SP-VMO/MAULLON, JAENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468913D-9D47-492C-B529-08E2F736F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD5421-5256-4135-995A-4D31B945B460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,40 +310,19 @@
     <t>8/16-18/2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-4)</t>
   </si>
   <si>
     <t>11/18,22,29/2022</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>10/10,11/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-0)</t>
   </si>
   <si>
     <t>UT(0-4-0)</t>
   </si>
   <si>
-    <t>A(5-0-0)</t>
-  </si>
-  <si>
-    <t>5/1,4,5,6,20/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-9)</t>
-  </si>
-  <si>
-    <t>A(15-0-0)</t>
-  </si>
-  <si>
-    <t>4/6-8,12,13,18-22,25-29/2022</t>
   </si>
   <si>
     <t>2024</t>
@@ -734,14 +713,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -751,9 +733,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2688,7 +2667,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K141" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
@@ -3065,12 +3044,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,16 +3079,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3120,16 +3099,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3142,16 +3121,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3177,18 +3156,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3235,7 +3214,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>9.8070000000000022</v>
+        <v>35.057000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3245,7 +3224,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>67.459000000000003</v>
+        <v>68.709000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4423,88 +4402,84 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>44652</v>
+      </c>
       <c r="B67" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="39">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H67" s="39"/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="39">
+        <v>10</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="49">
-        <v>44645</v>
+      <c r="K67" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H68" s="39">
-        <v>10</v>
-      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="39">
-        <v>15</v>
-      </c>
+      <c r="A69" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>97</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39">
-        <v>5</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4514,39 +4489,47 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>44774</v>
+      </c>
       <c r="B71" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39">
-        <v>1.9000000000000003E-2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4560,13 +4543,17 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4576,52 +4563,46 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39">
         <v>3</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="39">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4630,17 +4611,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39">
-        <v>2</v>
-      </c>
+      <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4650,62 +4627,62 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44896</v>
+      </c>
       <c r="B77" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39">
-        <v>2</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>94</v>
+      <c r="K78" s="49">
+        <v>44923</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
-        <v>0.125</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -4716,22 +4693,20 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
-        <v>44866</v>
+      <c r="A80" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4740,15 +4715,17 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>5</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -4759,85 +4736,85 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>3</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39">
-        <v>1</v>
-      </c>
+      <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="49">
-        <v>44923</v>
+      <c r="K82" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39">
-        <v>1</v>
-      </c>
+      <c r="A83" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44910</v>
-      </c>
+      <c r="K83" s="49"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="A84" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="48" t="s">
-        <v>75</v>
+      <c r="A85" s="40">
+        <v>45017</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4846,16 +4823,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
       <c r="D86" s="39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
@@ -4867,40 +4844,48 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45078</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39">
-        <v>3</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39">
+        <v>8</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B88" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>3</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -4910,11 +4895,13 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -4934,9 +4921,11 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B90" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
@@ -4947,44 +4936,46 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45187</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39">
-        <v>4</v>
-      </c>
+      <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20" t="s">
-        <v>83</v>
+      <c r="K91" s="49">
+        <v>45240</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>45231</v>
+      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
@@ -4995,55 +4986,47 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H92" s="39">
-        <v>8</v>
-      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45108</v>
+        <v>45261</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C93" s="13"/>
       <c r="D93" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40">
-        <v>45139</v>
+      <c r="A94" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -5052,70 +5035,60 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45170</v>
+        <v>45292</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>1</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="39">
-        <v>1</v>
-      </c>
+      <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="49">
-        <v>45187</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45323</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H96" s="39">
-        <v>1</v>
-      </c>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49">
-        <v>45240</v>
-      </c>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45231</v>
+        <v>45352</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -5124,15 +5097,11 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="39">
-        <v>5</v>
-      </c>
+      <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
@@ -5142,13 +5111,11 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="48" t="s">
-        <v>102</v>
+      <c r="A99" s="40">
+        <v>45413</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5166,15 +5133,11 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>45444</v>
+      </c>
+      <c r="B100" s="20"/>
       <c r="C100" s="13"/>
-      <c r="D100" s="39">
-        <v>1</v>
-      </c>
+      <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -5184,13 +5147,11 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="49">
-        <v>45296</v>
-      </c>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45323</v>
+        <v>45474</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5208,7 +5169,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5226,7 +5187,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45383</v>
+        <v>45536</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5244,7 +5205,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45413</v>
+        <v>45566</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5262,7 +5223,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5280,7 +5241,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45474</v>
+        <v>45627</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5298,7 +5259,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45505</v>
+        <v>45658</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5316,7 +5277,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45536</v>
+        <v>45689</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5334,7 +5295,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45566</v>
+        <v>45717</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5352,7 +5313,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45597</v>
+        <v>45748</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5370,7 +5331,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45627</v>
+        <v>45778</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5388,7 +5349,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45658</v>
+        <v>45809</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5406,7 +5367,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45689</v>
+        <v>45839</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5424,7 +5385,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5442,7 +5403,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45748</v>
+        <v>45901</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5460,7 +5421,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5478,7 +5439,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45809</v>
+        <v>45962</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5496,7 +5457,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45839</v>
+        <v>45992</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5514,7 +5475,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45870</v>
+        <v>46023</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5532,7 +5493,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45901</v>
+        <v>46054</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5550,7 +5511,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45931</v>
+        <v>46082</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5568,7 +5529,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45962</v>
+        <v>46113</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5586,7 +5547,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45992</v>
+        <v>46143</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5604,7 +5565,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46023</v>
+        <v>46174</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5622,7 +5583,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46054</v>
+        <v>46204</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5640,7 +5601,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46082</v>
+        <v>46235</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5658,7 +5619,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46113</v>
+        <v>46266</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5676,7 +5637,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46143</v>
+        <v>46296</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5693,9 +5654,7 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40">
-        <v>46174</v>
-      </c>
+      <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5711,9 +5670,7 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40">
-        <v>46204</v>
-      </c>
+      <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5729,9 +5686,7 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40">
-        <v>46235</v>
-      </c>
+      <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5747,9 +5702,7 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40">
-        <v>46266</v>
-      </c>
+      <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5765,9 +5718,7 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40">
-        <v>46296</v>
-      </c>
+      <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5815,114 +5766,34 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5990,16 +5861,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -6010,16 +5881,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6032,16 +5903,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6067,18 +5938,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6463,7 +6334,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
